--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -69,10 +69,10 @@
     <t xml:space="preserve">Main tasks p5.*</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -665,7 +665,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3010,7 +3010,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3405,7 +3405,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3602,7 +3602,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="107">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -246,31 +252,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-21</t>
+    <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -282,7 +369,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,8 +404,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,13 +428,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -378,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,7 +593,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,7 +621,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -513,7 +643,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -539,7 +669,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -664,7 +794,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +953,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -858,17 +988,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -881,46 +1011,562 @@
       <c r="C1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>77</v>
+      <c r="A2" s="13" t="n">
+        <v>45616</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="25" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <v>45912</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="18" t="n">
-        <v>45840</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="18" t="n">
-        <v>45840</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
+      <c r="G1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1587,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1839,7 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +2059,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2796,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2545,7 +3191,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3655,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3404,7 +4050,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3601,7 +4247,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -597,7 +597,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -990,7 +990,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1243,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1296,7 +1296,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="18" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.6</v>
@@ -1496,7 +1497,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1108,7 +1108,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="18" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>82</v>
@@ -1146,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1205,7 +1206,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="18" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>85</v>
@@ -1243,7 +1245,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="107">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1147,7 +1147,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1329,16 +1329,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,25 +1355,13 @@
         <v>76</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,28 +1374,14 @@
       <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <v>45840</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,8 +36,247 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Has Expert any task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Is task assign to an Expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Should task be included?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are date OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are date OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -87,33 +326,15 @@
     <t xml:space="preserve">p2.m</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">p2.f</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-30</t>
-  </si>
-  <si>
     <t xml:space="preserve">p2.pf</t>
   </si>
   <si>
     <t xml:space="preserve">p3.m</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-30</t>
-  </si>
-  <si>
     <t xml:space="preserve">p3.f</t>
   </si>
   <si>
@@ -123,63 +344,27 @@
     <t xml:space="preserve">p4.m</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">p4.f</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">p4.pf</t>
   </si>
   <si>
     <t xml:space="preserve">p5.m</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">p5.f</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">p5.pf</t>
   </si>
   <si>
     <t xml:space="preserve">p6.m</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-08-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">p6.f</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-08-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-08-29</t>
-  </si>
-  <si>
     <t xml:space="preserve">p6.pf</t>
   </si>
   <si>
@@ -198,46 +383,16 @@
     <t xml:space="preserve">25.Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Feb</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-16</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Apr</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-18</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -364,12 +519,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,6 +562,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -421,20 +585,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFD8CE"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -445,8 +603,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -496,7 +660,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,47 +669,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,15 +741,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,27 +765,35 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,7 +813,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -655,7 +847,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -792,23 +984,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="b">
+        <f aca="false">AND(C2:C985)</f>
         <v>1</v>
       </c>
     </row>
@@ -819,6 +1016,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="5" t="b">
+        <f aca="false">COUNTIF(links!$A$1:$A$868, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -827,6 +1028,10 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$868, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -835,6 +1040,10 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$868, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -843,6 +1052,10 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$868, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -851,6 +1064,13 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$868, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -860,6 +1080,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -868,72 +1089,591 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E830)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F830)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B14) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B15) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A16) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B16) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A17) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B17) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A18) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B18) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A19) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B19) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A20) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B20) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A21) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B21) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A22) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B22) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A23) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B23) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A24) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B24) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A25) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B25) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$985, A26) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B26) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -943,6 +1683,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -951,25 +1692,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="b">
+        <f aca="false">AND(B2:B904)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="18" t="n">
         <v>45651</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;A2)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -980,6 +1730,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -990,42 +1741,43 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="19.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>72</v>
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" s="18" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="25" t="n">
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="32" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>45912</v>
       </c>
@@ -1048,7 +1800,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1056,75 +1808,76 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="24" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>81</v>
+      <c r="G1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="E2" s="23" t="n">
+        <f aca="false">misc!A2+1</f>
+        <v>45632</v>
+      </c>
+      <c r="F2" s="23" t="n">
+        <f aca="false">E2+50</f>
+        <v>45682</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="27" t="b">
+      <c r="J2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1147,7 +1900,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1158,71 +1911,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>81</v>
+      <c r="G1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="E2" s="23" t="n">
+        <f aca="false">misc!A2+1</f>
+        <v>45632</v>
+      </c>
+      <c r="F2" s="23" t="n">
+        <f aca="false">E2+50</f>
+        <v>45682</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="27" t="b">
+      <c r="J2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1245,7 +1999,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1256,59 +2010,60 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>81</v>
+      <c r="G1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="18" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="E2" s="23" t="n">
+        <f aca="false">misc!A2+1</f>
+        <v>45632</v>
+      </c>
+      <c r="F2" s="23" t="n">
+        <f aca="false">E2+50</f>
+        <v>45682</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="27" t="b">
+      <c r="H2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="27" t="b">
+      <c r="I2" s="34" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1331,7 +2086,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1342,45 +2097,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>91</v>
+      <c r="A1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1402,7 +2157,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1413,45 +2168,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>95</v>
+      <c r="A1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="E2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1473,7 +2228,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1486,63 +2241,63 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="E2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1562,240 +2317,434 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="E1" s="10" t="b">
+        <f aca="false">AND(E2:E899)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="b">
+        <f aca="false">AND(F2:F904)</f>
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="b">
+        <f aca="false">AND(G2:G904)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>45749</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>664</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <f aca="false">C2&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="15" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">C3&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="15" t="n">
+        <v>45778</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>45790</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">C4&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="15" t="n">
+        <v>45640</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>45807</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>636</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">C5&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B6" s="15" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">C6&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="B7" s="15" t="n">
+        <v>45836</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">C7&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>45828</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <f aca="false">C8&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>45829</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>45856</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <f aca="false">C9&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>45857</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>45872</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <f aca="false">C10&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>45671</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>45789</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>680</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false">C11&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>45790</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>45817</v>
+      </c>
+      <c r="D12" s="14" t="n">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>45778</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>45790</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="E12" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">C12&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>45831</v>
+      </c>
+      <c r="D13" s="14" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>45808</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>45835</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>45836</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>45849</v>
-      </c>
-      <c r="D7" s="9" t="n">
+      <c r="E13" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <f aca="false">C13&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>45703</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>45870</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">C14&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B14), ISNUMBER(C14), B14&lt;=C14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>45871</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>45898</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>160</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <f aca="false">C15&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B15), ISNUMBER(C15), B15&lt;=C15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>45899</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>45912</v>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="10" t="n">
-        <v>45857</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>45872</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>45831</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="10" t="n">
-        <v>45899</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>45912</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>64</v>
+      <c r="E16" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A16) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <f aca="false">C16&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B16), ISNUMBER(C16), B16&lt;=C16)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1806,6 +2755,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1814,48 +2764,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="b">
+        <f aca="false">AND(C2:C933)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="b">
+        <f aca="false">AND(D2:D933)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B3) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B4) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +2846,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B5) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +2862,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B6) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,31 +2878,63 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B7) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B8) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B9) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B10) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +2942,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B11) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,7 +2958,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B12) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,39 +2974,79 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B13) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B14) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
+      <c r="B15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B15) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>27</v>
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B16) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B17) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,7 +3054,15 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B18) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,7 +3070,15 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B19) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,39 +3086,79 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B20) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
+      <c r="B21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B21) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>41</v>
+      <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B22) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>41</v>
+      <c r="B23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B23) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
+      <c r="B24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B24) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2026,6 +3169,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2034,97 +3178,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="b">
+        <f aca="false">AND(G2:G934)</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="b">
+        <f aca="false">AND(H2:H934)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="b">
+        <f aca="false">AND(I2:I904)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="n">
+        <v>45631</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>45749</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B2)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="15" t="n">
+        <v>45750</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>45777</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B3)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="C4" s="15" t="n">
+        <v>45778</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F4" s="17" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>45778</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>45790</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>8</v>
+      <c r="G4" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B4)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,19 +3325,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>45640</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>45807</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="6" t="n">
         <v>8</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B5)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,19 +3357,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18" t="n">
         <v>45808</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="18" t="n">
         <v>45835</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="6" t="n">
         <v>5</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B6)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,79 +3389,127 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18" t="n">
         <v>45836</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="18" t="n">
         <v>45849</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B7)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="n">
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>45828</v>
+      </c>
+      <c r="E8" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="17" t="n">
         <v>8</v>
       </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B8)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12" t="n">
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>45829</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>45856</v>
+      </c>
+      <c r="E9" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="17" t="n">
         <v>8</v>
       </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B9)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="n">
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>45857</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="15" t="n">
         <v>45872</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="17" t="n">
         <v>7</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B10)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,19 +3517,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18" t="n">
+        <v>45671</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>45789</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="6" t="n">
         <v>8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B11)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,19 +3549,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>45790</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>45817</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="6" t="n">
         <v>7</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B12)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,99 +3581,159 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18" t="n">
         <v>45818</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="18" t="n">
         <v>45831</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B13)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="16" t="n">
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>45828</v>
+      </c>
+      <c r="E14" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B14)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16" t="n">
+      <c r="B15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>45828</v>
+      </c>
+      <c r="E15" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B15)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="16" t="n">
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D16" s="20" t="n">
+        <v>45828</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B16)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="16" t="n">
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>45661</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>45828</v>
+      </c>
+      <c r="E17" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="21" t="n">
         <v>8</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B17)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,19 +3741,31 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>45703</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E18" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="6" t="n">
         <v>8</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B18)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,19 +3773,31 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D19" s="18" t="n">
+        <v>45898</v>
+      </c>
+      <c r="E19" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="6" t="n">
         <v>8</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B19)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C19), ISNUMBER(D19), C19&lt;=D19)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,170 +3805,230 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20" s="18" t="n">
         <v>45899</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="18" t="n">
         <v>45912</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="G20" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B20)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C20), ISNUMBER(D20), C20&lt;=D20)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="17" t="n">
+      <c r="B21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="20" t="n">
+        <v>45703</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B21)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C21), ISNUMBER(D21), C21&lt;=D21)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17" t="n">
+      <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="20" t="n">
+        <v>45703</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B22)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C22), ISNUMBER(D22), C22&lt;=D22)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17" t="n">
+      <c r="B23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>45703</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E23" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B23)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C23), ISNUMBER(D23), C23&lt;=D23)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="17" t="n">
+      <c r="B24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="20" t="n">
+        <v>45703</v>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E24" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="21" t="n">
         <v>8</v>
       </c>
+      <c r="G24" s="5" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B24)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(C24), ISNUMBER(D24), C24&lt;=D24)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -2763,6 +4196,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2773,7 +4207,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2781,28 +4215,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,67 +4602,67 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>51</v>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
@@ -3632,7 +5066,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3640,28 +5074,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,184 +5461,184 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>51</v>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4222,95 +5656,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="18" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="10" t="b">
+        <f aca="false">AND(D2:D906)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C2" s="25" t="n">
+        <v>45672</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>57</v>
+      <c r="A3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="25" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>45701</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>60</v>
+      <c r="A4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>45732</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>63</v>
+      <c r="A5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>45761</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>66</v>
+      <c r="A6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="25" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>45795</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4320,5 +5780,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -49,7 +50,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
         </r>
@@ -72,7 +72,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -85,7 +84,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
         </r>
@@ -108,7 +106,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -131,7 +128,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Is task assign to an Expert?</t>
         </r>
@@ -144,7 +140,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Should task be included?</t>
         </r>
@@ -157,7 +152,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are date OK?</t>
         </r>
@@ -180,7 +174,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -193,7 +186,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
         </r>
@@ -216,7 +208,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -229,7 +220,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
         </r>
@@ -242,7 +232,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are date OK?</t>
         </r>
@@ -265,7 +254,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -276,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -368,6 +356,9 @@
     <t xml:space="preserve">p6.pf</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expert</t>
   </si>
   <si>
@@ -513,6 +504,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -525,7 +519,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -559,6 +553,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -660,7 +659,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,7 +668,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,10 +677,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,11 +696,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,16 +768,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -793,7 +784,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,10 +975,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1016,7 +1007,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="2" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$868, A2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1028,7 +1019,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="2" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$868, A3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1040,7 +1031,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="2" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$868, A4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1052,7 +1043,7 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="2" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$868, A5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1064,13 +1055,10 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="2" t="b">
         <f aca="false">COUNTIF(links!$A$1:$A$868, A6) &gt; 0</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1098,23 +1086,23 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="b">
         <f aca="false">AND(E2:E830)</f>
@@ -1129,8 +1117,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>34</v>
+      <c r="B2" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1138,11 +1126,11 @@
       <c r="D2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1151,8 +1139,8 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>35</v>
+      <c r="B3" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1160,11 +1148,11 @@
       <c r="D3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1173,8 +1161,8 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>36</v>
+      <c r="B4" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1182,11 +1170,11 @@
       <c r="D4" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1195,8 +1183,8 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>37</v>
+      <c r="B5" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -1204,11 +1192,11 @@
       <c r="D5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1217,8 +1205,8 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>38</v>
+      <c r="B6" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -1226,11 +1214,11 @@
       <c r="D6" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1239,8 +1227,8 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>34</v>
+      <c r="B7" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -1248,11 +1236,11 @@
       <c r="D7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1261,8 +1249,8 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>35</v>
+      <c r="B8" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -1270,11 +1258,11 @@
       <c r="D8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1283,8 +1271,8 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>36</v>
+      <c r="B9" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
@@ -1292,11 +1280,11 @@
       <c r="D9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1305,8 +1293,8 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>37</v>
+      <c r="B10" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
@@ -1314,11 +1302,11 @@
       <c r="D10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1327,8 +1315,8 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>38</v>
+      <c r="B11" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -1336,11 +1324,11 @@
       <c r="D11" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1349,8 +1337,8 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>34</v>
+      <c r="B12" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -1358,11 +1346,11 @@
       <c r="D12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1371,8 +1359,8 @@
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>35</v>
+      <c r="B13" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -1380,11 +1368,11 @@
       <c r="D13" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1393,8 +1381,8 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>36</v>
+      <c r="B14" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
@@ -1402,11 +1390,11 @@
       <c r="D14" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1415,8 +1403,8 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>37</v>
+      <c r="B15" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -1424,11 +1412,11 @@
       <c r="D15" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1437,8 +1425,8 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>38</v>
+      <c r="B16" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
@@ -1446,11 +1434,11 @@
       <c r="D16" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1459,8 +1447,8 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>34</v>
+      <c r="B17" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -1468,11 +1456,11 @@
       <c r="D17" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1481,8 +1469,8 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>35</v>
+      <c r="B18" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0</v>
@@ -1490,11 +1478,11 @@
       <c r="D18" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1503,8 +1491,8 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>36</v>
+      <c r="B19" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
@@ -1512,11 +1500,11 @@
       <c r="D19" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1525,8 +1513,8 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>37</v>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
@@ -1534,11 +1522,11 @@
       <c r="D20" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1547,8 +1535,8 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>38</v>
+      <c r="B21" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
@@ -1556,11 +1544,11 @@
       <c r="D21" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1569,8 +1557,8 @@
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>34</v>
+      <c r="B22" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0</v>
@@ -1578,11 +1566,11 @@
       <c r="D22" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1591,8 +1579,8 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
+      <c r="B23" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -1600,11 +1588,11 @@
       <c r="D23" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1613,8 +1601,8 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>36</v>
+      <c r="B24" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0</v>
@@ -1622,11 +1610,11 @@
       <c r="D24" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1635,8 +1623,8 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>37</v>
+      <c r="B25" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0</v>
@@ -1644,11 +1632,11 @@
       <c r="D25" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1657,8 +1645,8 @@
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>38</v>
+      <c r="B26" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0</v>
@@ -1666,11 +1654,11 @@
       <c r="D26" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$985, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1694,30 +1682,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="b">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="b">
         <f aca="false">AND(B2:B904)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="17" t="n">
         <v>45651</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;A2)</f>
         <v>1</v>
       </c>
@@ -1747,37 +1735,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="19.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="D1" s="29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="17" t="n">
         <v>45631</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="32" t="n">
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="30" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>45912</v>
       </c>
@@ -1808,76 +1795,76 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="24" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>53</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="22" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45632</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">E2+50</f>
         <v>45682</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="34" t="b">
+      <c r="J2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="34" t="b">
+      <c r="K2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1911,72 +1898,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>53</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="22" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45632</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">E2+50</f>
         <v>45682</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="34" t="b">
+      <c r="J2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="34" t="b">
+      <c r="K2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2000,7 +1987,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2010,60 +1997,60 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>53</v>
       </c>
+      <c r="I1" s="29" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="22" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45632</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">E2+50</f>
         <v>45682</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="34" t="b">
+      <c r="H2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="34" t="b">
+      <c r="I2" s="32" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2097,45 +2084,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2168,45 +2155,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2241,64 +2228,123 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2317,433 +2363,459 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="b">
+      <c r="E1" s="9" t="b">
         <f aca="false">AND(E2:E899)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="b">
+      <c r="F1" s="9" t="b">
         <f aca="false">AND(F2:F904)</f>
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="b">
+      <c r="G1" s="9" t="b">
         <f aca="false">AND(G2:G904)</f>
         <v>1</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="12" t="n">
         <v>45631</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>45749</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="13" t="n">
         <v>664</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="2" t="b">
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="b">
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="14" t="n">
         <v>45750</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <v>45777</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="2" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="14" t="n">
         <v>45778</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>45790</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="2" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="14" t="n">
         <v>45640</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <v>45807</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="13" t="n">
         <v>636</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="2" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="14" t="n">
         <v>45808</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="14" t="n">
         <v>45835</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>96</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="2" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="14" t="n">
         <v>45836</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="14" t="n">
         <v>45849</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="2" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="14" t="n">
         <v>45661</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>45828</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="13" t="n">
         <v>1130</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="2" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="14" t="n">
         <v>45829</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>45856</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="2" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="14" t="n">
         <v>45857</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <v>45872</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="2" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="14" t="n">
         <v>45671</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>45789</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="13" t="n">
         <v>680</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="2" t="b">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="14" t="n">
         <v>45790</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="14" t="n">
         <v>45817</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="2" t="b">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="14" t="n">
         <v>45818</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="14" t="n">
         <v>45831</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="2" t="b">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="14" t="n">
         <v>45703</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="14" t="n">
         <v>45870</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="13" t="n">
         <v>1130</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="2" t="b">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B14), ISNUMBER(C14), B14&lt;=C14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="14" t="n">
         <v>45871</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="14" t="n">
         <v>45898</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="2" t="b">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B15), ISNUMBER(C15), B15&lt;=C15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="14" t="n">
         <v>45899</v>
       </c>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$868, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="2" t="b">
         <f aca="false">C16&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B16), ISNUMBER(C16), B16&lt;=C16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>45899</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>45912</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f aca="false">COUNTIF(links!$B$1:$B$868, A17) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <f aca="false">C17&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(B17), ISNUMBER(C17), B17&lt;=C17)</f>
         <v>1</v>
       </c>
     </row>
@@ -2764,10 +2836,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2779,10 +2851,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="b">
         <f aca="false">AND(C2:C933)</f>
@@ -2794,49 +2866,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2848,11 +2920,11 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2864,11 +2936,11 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2880,59 +2952,59 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2944,11 +3016,11 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2960,11 +3032,11 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2976,75 +3048,75 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B13) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B14) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B15) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B16) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3056,11 +3128,11 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3072,11 +3144,11 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3088,76 +3160,92 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B20) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B21) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B22) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B23) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903, B24) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$986, A25) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B25) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3188,28 +3276,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="b">
         <f aca="false">AND(G2:G934)</f>
@@ -3219,103 +3307,103 @@
         <f aca="false">AND(H2:H934)</f>
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="b">
+      <c r="I1" s="9" t="b">
         <f aca="false">AND(I2:I904)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>45631</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="12" t="n">
         <v>45749</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="b">
+      <c r="G2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B2)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <v>45750</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="14" t="n">
         <v>45777</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>45778</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="14" t="n">
         <v>45790</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -3327,27 +3415,27 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="17" t="n">
         <v>45640</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="17" t="n">
         <v>45807</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -3359,27 +3447,27 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="17" t="n">
         <v>45808</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="17" t="n">
         <v>45835</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -3391,123 +3479,123 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="17" t="n">
         <v>45836</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="17" t="n">
         <v>45849</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>45661</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="14" t="n">
         <v>45828</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="14" t="n">
         <v>45829</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="14" t="n">
         <v>45856</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="14" t="n">
         <v>45857</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="14" t="n">
         <v>45872</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -3519,27 +3607,27 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="17" t="n">
         <v>45671</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="17" t="n">
         <v>45789</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -3551,27 +3639,27 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="17" t="n">
         <v>45790</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="17" t="n">
         <v>45817</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -3583,155 +3671,155 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="17" t="n">
         <v>45818</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="17" t="n">
         <v>45831</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="19" t="n">
         <v>45661</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="19" t="n">
         <v>45828</v>
       </c>
-      <c r="E14" s="21" t="n">
+      <c r="E14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="21" t="n">
+      <c r="F14" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="19" t="n">
         <v>45661</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="19" t="n">
         <v>45828</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B15)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="19" t="n">
         <v>45661</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="19" t="n">
         <v>45828</v>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="21" t="n">
+      <c r="F16" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B16)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="20" t="n">
+      <c r="C17" s="19" t="n">
         <v>45661</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="19" t="n">
         <v>45828</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B17)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
         <v>1</v>
       </c>
@@ -3743,27 +3831,27 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>45703</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="17" t="n">
         <v>45870</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E18" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B18)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
         <v>1</v>
       </c>
@@ -3775,27 +3863,27 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>45871</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="17" t="n">
         <v>45898</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E19" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B19)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C19), ISNUMBER(D19), C19&lt;=D19)</f>
         <v>1</v>
       </c>
@@ -3807,228 +3895,228 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>45899</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="17" t="n">
         <v>45912</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E20" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B20)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C20), ISNUMBER(D20), C20&lt;=D20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20" t="n">
+      <c r="C21" s="19" t="n">
         <v>45703</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="19" t="n">
         <v>45870</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B21)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C21), ISNUMBER(D21), C21&lt;=D21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="20" t="n">
+      <c r="C22" s="19" t="n">
         <v>45703</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="19" t="n">
         <v>45870</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B22)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C22), ISNUMBER(D22), C22&lt;=D22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="20" t="n">
+      <c r="C23" s="19" t="n">
         <v>45703</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="19" t="n">
         <v>45870</v>
       </c>
-      <c r="E23" s="22" t="n">
+      <c r="E23" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="21" t="n">
+      <c r="F23" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B23)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C23), ISNUMBER(D23), C23&lt;=D23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="19" t="n">
         <v>45703</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="19" t="n">
         <v>45870</v>
       </c>
-      <c r="E24" s="22" t="n">
+      <c r="E24" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B24)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C24), ISNUMBER(D24), C24&lt;=D24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -4215,28 +4303,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,60 +4697,60 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="5" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
@@ -5074,28 +5162,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,177 +5556,177 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="5" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5665,112 +5753,112 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="18" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="17" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="b">
+      <c r="D1" s="9" t="b">
         <f aca="false">AND(D2:D906)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="25" t="n">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="24" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="25" t="n">
+      <c r="C2" s="24" t="n">
         <v>45672</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="25" t="n">
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="24" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="24" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="24" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="25" t="n">
+      <c r="A5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="24" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="25" t="n">
+      <c r="A6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="24" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -241,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -263,8 +205,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1008,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$868, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$868, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1020,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$868, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$868, A3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1032,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$868, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$868, A4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1044,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$868, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$868, A5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1056,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$868, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$868, A6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -1073,656 +1071,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="5" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f aca="false">AND(E2:E830)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f aca="false">AND(F2:F830)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A14) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B14) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A15) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B15) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A16) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B16) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A17) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B17) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A18) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B18) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A19) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B19) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A20) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B20) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E21" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A21) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B21) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A22) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B22) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E23" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A23) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B23) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A24) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B24) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A25) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B25) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E26" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$985, A26) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$998, B26) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="9" t="b">
-        <f aca="false">AND(B2:B904)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1765,7 +1113,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="30" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45912</v>
       </c>
     </row>
@@ -1780,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1880,7 +1228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1979,7 +1327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2066,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2137,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2208,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2299,14 +1647,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2417,7 +1765,7 @@
         <v>664</v>
       </c>
       <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
@@ -2443,7 +1791,7 @@
         <v>128</v>
       </c>
       <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F3" s="2" t="b">
@@ -2469,7 +1817,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F4" s="2" t="b">
@@ -2495,7 +1843,7 @@
         <v>636</v>
       </c>
       <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F5" s="2" t="b">
@@ -2521,7 +1869,7 @@
         <v>96</v>
       </c>
       <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F6" s="2" t="b">
@@ -2547,7 +1895,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F7" s="2" t="b">
@@ -2573,7 +1921,7 @@
         <v>1130</v>
       </c>
       <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
@@ -2599,7 +1947,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F9" s="2" t="b">
@@ -2625,7 +1973,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F10" s="2" t="b">
@@ -2651,7 +1999,7 @@
         <v>680</v>
       </c>
       <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F11" s="2" t="b">
@@ -2677,7 +2025,7 @@
         <v>128</v>
       </c>
       <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
@@ -2703,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F13" s="2" t="b">
@@ -2729,7 +2077,7 @@
         <v>1130</v>
       </c>
       <c r="E14" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F14" s="2" t="b">
@@ -2755,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="E15" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F15" s="2" t="b">
@@ -2781,7 +2129,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A16) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A16) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F16" s="2" t="b">
@@ -2807,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$868, A17) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$868, A17) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F17" s="2" t="b">
@@ -2873,11 +2221,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2889,11 +2237,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2905,11 +2253,11 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2921,11 +2269,11 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D5" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2937,11 +2285,11 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D6" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2953,11 +2301,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D7" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2969,11 +2317,11 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B8) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -2985,11 +2333,11 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D9" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B9) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3001,11 +2349,11 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D10" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B10) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B10) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3017,11 +2365,11 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D11" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B11) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B11) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3033,11 +2381,11 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D12" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B12) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B12) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3049,11 +2397,11 @@
         <v>26</v>
       </c>
       <c r="C13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D13" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B13) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B13) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3065,11 +2413,11 @@
         <v>21</v>
       </c>
       <c r="C14" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D14" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B14) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B14) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3081,11 +2429,11 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D15" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B15) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B15) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3097,11 +2445,11 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A16) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D16" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B16) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B16) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3113,11 +2461,11 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A17) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D17" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B17) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B17) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3129,11 +2477,11 @@
         <v>27</v>
       </c>
       <c r="C18" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A18) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D18" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B18) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B18) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3145,11 +2493,11 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A19) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D19" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B19) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B19) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3161,11 +2509,11 @@
         <v>29</v>
       </c>
       <c r="C20" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A20) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D20" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B20) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B20) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3177,11 +2525,11 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A21) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D21" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B21) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B21) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3193,11 +2541,11 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A22) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D22" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B22) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B22) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3209,11 +2557,11 @@
         <v>27</v>
       </c>
       <c r="C23" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A23) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D23" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B23) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B23) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3225,11 +2573,11 @@
         <v>27</v>
       </c>
       <c r="C24" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A24) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D24" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B24) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B24) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3241,11 +2589,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A25) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A25) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D25" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903, B25) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903, B25) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3332,11 +2680,11 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B2)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B2)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -3364,11 +2712,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B3)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B3)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
@@ -3396,11 +2744,11 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B4)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B4)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -3428,11 +2776,11 @@
         <v>8</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B5)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B5)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -3460,11 +2808,11 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B6)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B6)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -3492,11 +2840,11 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B7)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B7)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -3524,11 +2872,11 @@
         <v>8</v>
       </c>
       <c r="G8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B8)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B8)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
@@ -3556,11 +2904,11 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B9)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B9)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I9" s="2" t="b">
@@ -3588,11 +2936,11 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H10" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B10)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B10)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I10" s="2" t="b">
@@ -3620,11 +2968,11 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H11" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B11)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B11)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="b">
@@ -3652,11 +3000,11 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H12" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B12)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B12)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I12" s="2" t="b">
@@ -3684,11 +3032,11 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H13" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B13)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B13)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I13" s="2" t="b">
@@ -3716,11 +3064,11 @@
         <v>8</v>
       </c>
       <c r="G14" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H14" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B14)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B14)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I14" s="2" t="b">
@@ -3748,11 +3096,11 @@
         <v>8</v>
       </c>
       <c r="G15" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H15" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B15)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B15)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I15" s="2" t="b">
@@ -3780,11 +3128,11 @@
         <v>8</v>
       </c>
       <c r="G16" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A16) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A16) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H16" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B16)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B16)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I16" s="2" t="b">
@@ -3812,11 +3160,11 @@
         <v>8</v>
       </c>
       <c r="G17" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A17) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A17) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H17" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B17)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B17)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I17" s="2" t="b">
@@ -3844,11 +3192,11 @@
         <v>8</v>
       </c>
       <c r="G18" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A18) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A18) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H18" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B18)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B18)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I18" s="2" t="b">
@@ -3876,11 +3224,11 @@
         <v>8</v>
       </c>
       <c r="G19" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A19) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A19) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H19" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B19)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B19)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I19" s="2" t="b">
@@ -3908,11 +3256,11 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A20) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A20) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H20" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B20)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B20)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I20" s="2" t="b">
@@ -3940,11 +3288,11 @@
         <v>8</v>
       </c>
       <c r="G21" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A21) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A21) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H21" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B21)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B21)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I21" s="2" t="b">
@@ -3972,11 +3320,11 @@
         <v>8</v>
       </c>
       <c r="G22" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A22) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A22) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H22" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B22)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B22)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I22" s="2" t="b">
@@ -4004,11 +3352,11 @@
         <v>8</v>
       </c>
       <c r="G23" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A23) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A23) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H23" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B23)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B23)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I23" s="2" t="b">
@@ -4036,11 +3384,11 @@
         <v>8</v>
       </c>
       <c r="G24" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$986, A24) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$986, A24) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H24" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$903,B24)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$903,B24)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I24" s="2" t="b">
@@ -4289,401 +3637,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="5" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5147,409 +4100,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="5" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5739,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5870,4 +4428,654 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="5" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E830)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F830)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B14) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B15) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A16) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B16) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A17) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B17) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A18) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B18) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A19) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B19) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A20) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B20) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A21) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B21) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A22) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B22) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A23) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B23) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A24) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B24) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A25) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B25) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$985, A26) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$998, B26) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="b">
+        <f aca="false">AND(B2:B904)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1654,7 +1654,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4107,7 +4107,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -399,10 +399,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -976,7 +982,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="D1:D2 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1075,17 +1081,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1098,8 +1104,11 @@
       <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,9 +1119,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="30" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="30" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45912</v>
       </c>
@@ -1136,7 +1148,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1151,13 +1163,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -1166,19 +1178,19 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1212,10 @@
         <v>45682</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.3</v>
@@ -1213,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1236,7 +1248,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1247,16 +1259,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -1265,19 +1277,19 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,10 +1311,10 @@
         <v>45682</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.3</v>
@@ -1312,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1347,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1346,16 +1358,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -1364,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1422,7 +1434,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1433,25 +1445,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1477,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>0.9</v>
@@ -1493,7 +1505,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1504,25 +1516,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1548,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>4</v>
@@ -1564,7 +1576,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1577,34 +1589,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,16 +1630,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.5</v>
@@ -1654,8 +1666,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1666,19 +1678,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +1726,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D1:D2 D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2187,7 +2199,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="D1:D2 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2617,7 +2629,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="D1:D2 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3644,7 +3656,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4108,7 +4120,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4305,7 +4317,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4438,7 +4450,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="D1:D2 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5041,7 +5053,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -411,6 +412,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -420,6 +424,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -427,12 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -579,7 +583,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,7 +593,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
@@ -620,12 +624,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -663,7 +661,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,10 +790,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +824,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -842,7 +836,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFD8CE"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -982,7 +976,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="D1:D2 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1145,31 +1139,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
@@ -1177,28 +1170,19 @@
       <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>150</v>
@@ -1208,23 +1192,14 @@
         <v>45632</v>
       </c>
       <c r="F2" s="22" t="n">
-        <f aca="false">E2+50</f>
-        <v>45682</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="32" t="b">
+        <f aca="false">E2+20</f>
+        <v>45652</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="32" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1245,87 +1220,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="22" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45632</v>
-      </c>
-      <c r="F2" s="22" t="n">
-        <f aca="false">E2+50</f>
-        <v>45682</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="5" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1344,75 +1274,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="22" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45632</v>
-      </c>
-      <c r="F2" s="22" t="n">
-        <f aca="false">E2+50</f>
-        <v>45682</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="32" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1431,16 +1327,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,41 +1344,11 @@
         <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1502,59 +1368,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="5" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1573,79 +1421,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="D2" s="5" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1664,46 +1474,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1726,7 +1591,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D1:D2 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2199,7 +2064,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="D1:D2 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2629,7 +2494,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="D1:D2 H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3656,7 +3521,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4120,7 +3985,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4317,7 +4182,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4450,7 +4315,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="D1:D2 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5053,7 +4918,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
+++ b/ampl-data-input-excel/07-long-term-planning-DEV/07-long-term-planning-DEV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">scip</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -976,7 +976,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="D1:D2 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1077,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="D1:D2 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1222,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D1:D2 D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="D1:D2 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="1" sqref="D1:D2 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3521,7 +3521,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3985,7 +3985,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4182,7 +4182,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4315,7 +4315,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="D1:D2 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4918,7 +4918,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="D1:D2 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
